--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2022/ifoCAst_error_tables_last_rep_latest_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2022/ifoCAst_error_tables_last_rep_latest_since_2022_GVA.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2328747262520864</v>
+        <v>0.2304760901931839</v>
       </c>
       <c r="C2">
-        <v>0.6830695759056026</v>
+        <v>0.6389819110794862</v>
       </c>
       <c r="D2">
-        <v>0.6455555132660048</v>
+        <v>0.5920202495404218</v>
       </c>
       <c r="E2">
-        <v>0.8034646932292699</v>
+        <v>0.769428521397811</v>
       </c>
       <c r="F2">
-        <v>0.8003761291213479</v>
+        <v>0.7618103084836596</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
